--- a/500all/speech_level/speeches_CHRG-114hhrg99625.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99625.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400097</t>
   </si>
   <si>
-    <t>Susan A. Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you very much, Mr. Chairman.    And if I may, I want to ask unanimous consent to submit our Ranking Member Smith's statement for the record.    The Chairman. Without objection.    [The prepared statement of Mr. Smith can be found in the Appendix on page 41.]</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Harris</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Admiral Harris. Thank you, Chairman Thornberry and Representative Davis and distinguished members. It is an honor for me to appear before this committee. I am pleased to be here with General Scaparrotti to discuss how U.S. Pacific Command [PACOM] is protecting America's interests across the vast Indo-Asia-Pacific.    Since taking command of PACOM last May, I have had the extraordinary privilege of leading the 400,000 soldiers, sailors, airmen, marines, Coast Guardsmen, and civilians serving our Nation. These dedicated men and women and their families are doing an amazing job, and I am proud to serve alongside them.    To provide you some issues of concern, I would like to briefly highlight a few regional issues. As China continues its pattern of destabilizing militarization of the South China Sea, we have resumed our freedom of navigation operations there, a waterway vital to America's prosperity, where $5.3 trillion in trade traverses each year.    General Scaparrotti and I remain aligned in dealing with North Korea's recent underground nuclear test, followed by its ballistic missile launch.    A revanchist Russia is revitalizing its ability to execute long-range strategic patrols in the Pacific to include the basing of its newest strategic ballistic missile submarine and last month's bomber flights around Japan.    Recent terrorist attacks in Bangladesh and Indonesia underscore the fact that violent Islamic extremism is a global concern that must be crushed.    We have continued to strengthen our alliances and partnerships. Japan's peace and security legislation authorizing limited collective self-defense will take effect this year. This legislation and the revised guidelines for U.S.-Japan defense cooperation will significantly increase Japan's ability to work with us.    Thanks to the great leadership of General Scaparrotti here, South Korea and the United States have taken a strong and unified stance to maintain peace and stability on the Korean Peninsula. In the face of recent North Korean aggression, PACOM hosted a tri-CHOD [Chief of Defense] meeting between U.S. Chairman of the Joint Chiefs, General Dunford; Japan Chairman, Admiral Kawano; and South Korea Chairman, General Lee. Trilateral cooperation between Japan, South Korea, and the United States is a priority, and I am doing everything I can to enhance it.    Our alliance with the Philippines took an important step forward when the Philippine Supreme Court recently upheld the Enhanced Defense Cooperation Agreement, or EDCA, which will provide significant partnership and access benefits.    I am also excited about our growing relationship with India, where I will visit next week. As the world's two largest democracies, we are uniquely poised to help bring greater security and prosperity to the entire region.    Two visionary policies are now coinciding as the United States rebalances west to the Indo-Asia-Pacific and India implements its ``Act East'' policy. Last month's Malabar exercise between India, Japan, and the United States shows the security interconnectedness of the Indian Ocean, Asia, and the Pacific Ocean.    I rely heavily on Australia, not only for its advanced military capabilities across all domains but, importantly, for Australia's warfighting experience and leadership in operations around the world.    These examples clearly demonstrate to me that the United States is a security partner of choice in the Indo-Asia-Pacific. It is also why I believe that our strategic rebalance has taken hold. Given that four of the five strategic problem sets identified by Secretary Carter--China, North Korea, Russia, and ISIL [Islamic State of Iraq and the Levant]--are in our region, I would say that we can't rebalance fast enough. But there is more work to do, and we must not lose the momentum.    So I ask this committee to support continued investment in future capabilities. I need weapons systems of increased lethality that go faster, go further, and are more survivable. If funding uncertainties continue, the U.S. will experience reduced warfighting capabilities, so I urge the Congress to repeal sequestration.    Finally, I would like to thank this committee and the whole Congress for your enduring support to PACOM and to the men and women in uniform, our civilian teammates, and our families.    Thank you. And I look forward to your questions.    [The prepared statement of Admiral Harris can be found in the Appendix on page 43.]    The Chairman. Thank you, sir.    General.    General Scaparrotti. Chairman Thornberry, Ranking Member Davis, and distinguished members of the committee, I am honored to testify today as the Commander of the United Nations Command, Combined Forces Command, and the United States Forces-Korea [USFK]. On behalf of the American soldiers, sailors, airmen, and marines, and our civilians serving in the Republic of Korea, thank you for your support.    Admiral Harris, thank you for your vision and the professional support of the entire PACOM team for USFK.    I have prepared brief opening remarks, and I appreciate that my written posture statement is being entered into the record.    Since my last testimony, our U.S.-ROK [Republic of Korea] alliance has continued to focus on advancing our combined capabilities. Some of these advanced capabilities include the establishment of the first U.S.-ROK combined division, additional rotations of U.S. forces to the peninsula, the execution of our annual combined training exercises, and steady progress on our $10.7 billion plan to relocate U.S. forces in Korea. Furthermore, the Republic of Korea has improved its capabilities with the recent establishment of the Korean Air and Missile Defense System and Center and the Allied Korea Joint Command and Control System.    The Republic of Korea has also invested in modern equipment, with the purchase of the F-35 Joint Strike Fighter, Global Hawk, the Patriot Advanced Capability-3 missile upgrades, and also AH-64 Apache helicopters. These alliance advances help counter the real and the proximate North Korean threat.    North Korea continues to conduct provocations and to resource its large conventional force. And, of greater significance, North Korea continues to aggressively develop nuclear weapons and ballistic missiles in direct violation of the U.N. Security Council resolutions, as demonstrated with its fourth nuclear test and its fifth TD-2 launch in January and February.    In regards to this threat, my top concern remains the potential for a North Korean provocation to start a cycle of action and counteraction which could quickly escalate, similar to what we experienced this past August. While I am proud to report that our alliance stood shoulder to shoulder and deescalated the situation, it could have spiraled out of control and demonstrates why we must remain ready to ``fight tonight.''    To maintain this level of readiness, we will continue to focus on sustaining, strengthening, and transforming the alliance, with an emphasis on our combined readiness in four critical areas. First, ISR [intelligence, surveillance, and reconnaissance] remains my top readiness challenge. CFC [Combined Forces Command] USFK requires additional persistent all-weather ISR capabilities, as well as dependable moving target indicator support to maintain situational awareness and provide adequate decision space.    Second, it is critical for the alliance to establish a layered and interoperable ballistic missile defense. To advance this goal in the near future, we will begin bilateral consultations regarding the feasibility of deploying the THAAD [Terminal High Altitude Area Defense] system to the Republic of Korea, which would complement the Patriot system's capabilities.    Third, we must maintain an adequate quantity of critical munitions to ensure alliance supremacy in the early days of conflict on the peninsula. This requirement is further amplified by the approaching loss of cluster munitions due to shelf-life expiration and the impending ban.    And, fourth, we must focus on command, control, communications, computers, and intelligence, or C4I. Both the United States and the Republic of Korea are investing in new tactical equipment that will comprise a reliable C4I architecture, but more is required.    In closing, I would like to express how proud I am of our service members, our civilians, and their families serving in the Republic of Korea, who never lose sight of the fact that they are serving on freedom's frontier.    I would also like to recognize Ambassador Mark Lippert, Admiral Harry Harris, and the U.S. and ROK senior leaders for their enduring commitment to our mission.    I thank you and this committee for your support, and I look forward to your questions.    [The prepared statement of General Scaparrotti can be found in the Appendix on page 67.]    The Chairman. Thank you, sir.    Let me ask you each to address really a very basic question, and that is, do you have the military forces required to fulfill the missions you have been assigned?    And, Admiral Harris, you mentioned the freedom of navigation operations, which have been underway. From what one reads, they are pretty few and far between and don't seem to be making much of a difference, because we also read that the Chinese have put surface-to-air missiles on these new islands they are constructing. So if you could address, broadly, in your theater, do you have the military forces to carry out the missions you are assigned, and then, more specifically, the Chinese South China Sea issues that have arisen.</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman.    And, Admiral, General, thank you so much for your service. I want to thank you, the service members, military families. What a commitment of protecting American families, also protecting our great allies.    And, Admiral Harris, I am particularly grateful that I have had the opportunity to visit with you in the past. And, to me, you are a living example of America's alliance with Japan. It is just, to me, so historic and inspiring to know that we have a Japanese-American as the U.S. Pacific commander at Pearl Harbor. How far we have come. And just being in your presence has just been so positive and has to be reassuring to the people all over Asia.    Also, I am very grateful that my family has had an association with Asia. My dad served in the Flying Tigers during World War II, and I grew up hearing from him a great affection for the people of China and the people of India. And so I am hopeful that indeed positive can continue to advance, but with that in mind, Admiral, I appreciate your interest in maintaining our technological superiority, and later today, there will be a subcommittee hearing of the Emerging Threats and Capabilities Subcommittee on the Department of Defense science and technology programs. These issues continue to be of crucial importance to this committee, particularly the chairman, and this is key to our warfighters' future success.    Could you please describe what do you see as the right balance between investing in future capabilities, like the third offset strategy, and getting the commander what he needs now? How has the fiscal year 2017 budget request prioritized the modernization affecting your command?</t>
   </si>
   <si>
@@ -118,9 +109,6 @@
     <t>400232</t>
   </si>
   <si>
-    <t>Rick Larsen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Larsen. Thank you.    Thank you, Mr. Chairman.    And thanks, gentlemen, for making it out.    You know, on the West Coast, it is not that far to go to Korea, so maybe, from here, it is, but it is not that far from home.    So we get a lot of questions about when North Korea does things and when China does things. First, for Admiral Harris, a couple reports have come out recently, one looking at the rebalance strategy and what can be done to improve that and enhance that. One suggestion--this is out of CSIS [Center for Strategic and International Studies]--one suggestion was a western Pacific joint task force, and I was wondering what your opinions about that are. And in the answer, if you could relate that to building partnership capabilities and whether or not, much like we do with NATO [North Atlantic Treaty Organization], there is a NATO commitment of a 2 percent of GDP [gross domestic product], but we can do that in a formal structure, if there is a value of informal commitments from our friends and allies in the region to invest in their capabilities to support regional objectives.    And then I have got a question for the general after that.</t>
   </si>
   <si>
@@ -145,9 +133,6 @@
     <t>400341</t>
   </si>
   <si>
-    <t>Mike Rogers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Chairman.    General Scaparrotti, I wanted to follow up on that area. Given Kim Jong-un's erratic behavior and recent nuclear tests and ballistic missile tests, what capabilities do you need to make sure you can maintain the security of your forces as well as the ROK?    General Scaparrotti. As I said, the most important to me is ISR, because it allows me to be in the proper posture to be able to get ahead of whatever it is he intends to do. And on the Korean Peninsula, I have got a very large conventional force in very close proximity to Seoul. That is one problem set. And then I have their asymmetric problem set, which is primarily their nuclear; their missile; their SOF [special operations] forces, the largest SOF forces in the world, 60,000 strong; long-range artillery capability; and their cyber. Many of those are deeper into the country, so it is a very difficult ISR challenge, probably one of the toughest in the world, given the terrain, mountainous.</t>
   </si>
   <si>
@@ -211,9 +196,6 @@
     <t>400041</t>
   </si>
   <si>
-    <t>Madeleine Z. Bordallo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you, Mr. Chairman.    I would like to remind my colleagues that my home is next door to North Korea, when we talk about distances.    So, Admiral and General, thank you for your testimony and for your service and leadership.    Mr. Wittman and I were just out in your region a day ago, and I appreciated the opportunity to get updates on the progress we are making in realigning forces and trying to posture our force to respond to the environment in the region. One of the things that people become aware of when traveling in the region is the tyranny of distance. This is never more evident than when it comes to making sure we maintain a forward and deployed fleet.    And, Admiral, you noted the need for more submarines as a top priority yesterday. To support this, I believe it is critical that we maintain robust ship repair and dry-dock capabilities, including at a nuclear capable level, in the western Pacific.    Now, you wrote a letter to the Guam Economic Authority stating, and I quote: ``The Navy has consistently stated a robust ship repair capability in Guam as a matter of strategic importance and remains an operational priority for the Pacific Fleet.''    Do you continue to share this view, Admiral?</t>
   </si>
   <si>
@@ -238,9 +220,6 @@
     <t>412255</t>
   </si>
   <si>
-    <t>Robert J. Wittman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman.    Gentlemen, thank you so much for your service and thank you for the great job that you are doing in the Asia-Pacific. As Ms. Bordallo said, we had a great trip there.    Admiral Harris, I want to ask your perspective. As we got the laydown on the situation there in the Asia-Pacific, one of the things that was really compelling to me was the effort by the Chinese in the South China Sea. As you pointed out, their efforts there on Woody Island and the Paracels is something that is done. There is nothing that we can do to necessarily reverse that. The place, though, where I do believe we can have an impact is in the Spratly Islands. As you know, over 3,000 acres of reclamation there, those places are set up specifically, I believe, for them to militarize those areas.    As you spoke in your opening testimony, you talked about submarines as one of the elements that you have as a critical part of force structure. There is also a suggestion of a second aircraft carrier. In looking at what we can do to deter or prevent further militarization of the South China Sea, give me your perspective on the priority that you would need as far as naval assets, and I am asking you submarines versus the second aircraft carrier. Give me what your priorities would be in that situation.</t>
   </si>
   <si>
@@ -274,9 +253,6 @@
     <t>412193</t>
   </si>
   <si>
-    <t>Joe Courtney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman.    And thank you to both witnesses for your leadership and your testimony this morning.    Admiral, on page 5 of your testimony, you pretty much laid out what is sort of the guideposts for the sovereignty claims issues, which we have discussed this morning with the island building, and basically, it says, we encourage all countries to uphold international laws reflected in the Law of the Sea Convention. Should the United States ratify UNCLOS [United Nations Convention on the Law of the Sea], the Law of the Sea treaty?</t>
   </si>
   <si>
@@ -298,9 +274,6 @@
     <t>400141</t>
   </si>
   <si>
-    <t>Trent Franks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Franks. Well, thank you, Mr. Chairman.    And thank you, General Scaparrotti and Admiral Harris, for being here--all your entourage--for your commitment to protecting us all. We appreciate it. Sometimes you don't get told that enough.    Admiral Harris, I guess I will start out with a really easy question: Are you aware of any collusion between Iran and North Korea with regards to North Korea's intermittent but ongoing nuclear and missile tests?</t>
   </si>
   <si>
@@ -337,9 +310,6 @@
     <t>412254</t>
   </si>
   <si>
-    <t>Niki Tsongas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman.    And thank you to our witnesses for being here.    I too just returned from Japan. I was part of a congressional delegation that spent 3 days in Tokyo and 2 days in Okinawa. And I had spent years there--many years ago, I was a high school student there.    And as I hadn't been back in the interim, I really was struck by the tremendous changes in that country but also in the relationship we have developed with Japan. Because at the time I lived there, it was really not too long after World War II, and there was certainly an effort to constrain Japan militarily and, yet, to reassure it about its being protected.    So, as we have moved forward, we are in a very different environment. And I appreciate the rationale for it, as things have really changed in that part of the--in the Asia-Pacific area.    And, Admiral, you referenced the peace and security legislation that Japan just passed that really authorizes it to engage in a more expansive way in regional security efforts. And one of the questions I had there and posed there was, is money following that? As Japan is sort of--as the ties are being loosened on what it can do and cannot do militarily, is funding following that effort so that they absorb a little more of the financial responsibility for protecting that part of the world?</t>
   </si>
   <si>
@@ -382,9 +352,6 @@
     <t>412567</t>
   </si>
   <si>
-    <t>Jim Bridenstine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman.    And thank you both for being here. It is an honor to have you before our committee. Certainly, I have spent plenty of time in the Pacific as a Navy pilot myself, now serving in the Oklahoma Air National Guard.    General Scaparrotti, I wanted to ask you or actually share with you one of my big concerns I have heard from one of my constituents. I want to make you aware of a recent Army regulation change regarding dining facility use for rotationally deployed forces under your command. Effective February 15, 2016, the Army declared essential unit messing for rotationally deployed soldiers serving in the Pacific. In other words, all soldiers deployed temporary duty to Korea must use the dining facility, the DFAC.    This policy will literally take money out of soldiers' pockets, hundreds of dollars per month, in two ways: First, the Army will charge for meals at the DFAC through automatic payroll deductions. That is automatic payroll deductions. These deductions will occur whether or not a soldier actually uses the DFAC. And, as you are aware, when you do missions in these areas, those missions happen during breakfast, happen during lunch, and you are not able to use the DFAC. So soldiers will have money deducted, even though they are not using the DFAC.    Second, the Army is also taking away their daily food allowance, known as the government meal rate. I have a constituent in the 10th Combat Aviation Brigade currently at Camp Humphreys. The Army's bureaucratic jiggery-pokery will reduce his paycheck over $700 per month through the automatic DFAC deduction and stopping meal allowances. I want to repeat that: $700 per month. These soldiers are not going to Korea for a week or even a month; they are going for 9 months. And so when you lose $700 a month, that ends up being a good chunk of money.    In contrast, a soldier at Camp Humphreys, under the permanent change of station orders, is apparently exempt from the automatic meal deduction. Aviation units, such as the 10th CAB [Combat Aviation Brigade], don't plan training or missions around the whims of the DFAC, as I have already talked about. That is why the food allowance exists in the first place. That is why it was there.    And I would like to show you some pictures here of what is going on at the DFAC in Korea. There are a couple of pictures. Can we just slide through a few more?    [The slides referred to were not available at the time of printing.]</t>
   </si>
   <si>
@@ -394,9 +361,6 @@
     <t xml:space="preserve">    Mr. Bridenstine. Okay.    And, Mr. Chairman, before I yield back, I just want to note that I want to introduce legislation to make sure that this is taken care of. Thank you.    I yield back.    The Chairman. Mr. Takai.</t>
   </si>
   <si>
-    <t>Takai</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takai. Thank you, Mr. Chairman.    And thank you, Admiral Harris, General Scaparrotti, for being here.    Admiral Harris, again, regarding the Aegis Ashore facility--or the hope for a facility--North Korea's nuclear test in January underscores the concern that we have, that North Korea may develop the ability to place a bomb on a long-range ballistic missile that could reach the U.S. West Coast. I referred to public comments you made that converting the Aegis missile defense test site in Hawaii into a combat-ready facility is a good idea to help protect the U.S. mainland.    Since we have assets on Kauai, why not use them? How would this permanent land version add to U.S. defense needs? And what would it take to integrate the site into a larger U.S. ballistic missile defense system?</t>
   </si>
   <si>
@@ -421,9 +385,6 @@
     <t>412601</t>
   </si>
   <si>
-    <t>Bradley Byrne</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Byrne. Thank you, Mr. Chairman.    Gentlemen, thank you for being here today.    Admiral Harris, let me ask you some questions about the littoral combat ship [LCS] program. You have stated that the littoral combat ship was a vital capability for you to engage through the PACOM area of operation. You note the LCS was needed to do missions not suited for DDGs, destroyers. How beneficial is having such a capability in your AOR [area of responsibility] to patrol waters not easily navigated by larger platforms?</t>
   </si>
   <si>
@@ -454,9 +415,6 @@
     <t>412199</t>
   </si>
   <si>
-    <t>Henry C. "Hank" Johnson, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    And thank you, gentlemen, for your service.    The U.S. PAC [Pacific] Command has given authorization in the fiscal year 2016 NDAA's South China Sea initiative to build our maritime security in the region and improve the domain awareness of our partners in the region. In your opinion, does this authority need to be expanded, and if so, what changes would you like to see made?</t>
   </si>
   <si>
@@ -502,9 +460,6 @@
     <t>412611</t>
   </si>
   <si>
-    <t>Martha McSally</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman.    Thank you, gentlemen.    General Scaparrotti, you said earlier that should we have to be involved--God forbid--in military conflict on the peninsula, it would be more akin to Korea or World War II: complex, high casualty. Are you concerned at all--we have heard, you know, the service chiefs come before us in the last year, sequestration, the impact, and us being in 15 years of a counterinsurgency mindset has had a real impact on the readiness of units. The squadron I commanded was ready to head over there on 24 hours' notice, but a lot of the readiness has really been degraded across the joint force that are on a TPFDD [time-phased force and deployment data] ready to go for supporting that kind of contingency. Are you concerned at all about the real readiness levels of being able to respond quickly?    General Scaparrotti. Yes, ma'am. Thank you. Yes, I am. As you know, all of our services are really coming out of a bathtub in readiness, and it has been improving because of the increased funding. And we appreciate that support, but it is going to be some time before our forces are at a point where all of the units have now been through training that prepares them really for a complex environment, high-intensity conflict.    I can speak specifically of the Army. It takes time for us to get units through those complex rotations at our national training centers. We have got younger generations who haven't combined fires, for instance, et cetera, fire and maneuver in large formations. Those are things that an individual, small unit, and larger unit training that is complex.    So I am concerned about it. I know that all the services are focused on this, and we, on the peninsula, are as well. So, when we do our exercises and we bring units in, that is the kind of training at each level that we are focused on.</t>
   </si>
   <si>
@@ -538,9 +493,6 @@
     <t>400230</t>
   </si>
   <si>
-    <t>James R. Langevin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    Admiral Harris and General Scaparrotti, thank you very much for your testimony today and your service to our Nation.    For years now, we have underinvested in our EW [electronic warfare] capabilities, where our adversaries have actually invested heavily in those areas. Now, some of this you may not be able to go into an open session, but to the degree that you can, where are we held risk because of that underinvestment as we are shifting to the Asia-Pacific region? And how overmatched are we? And what areas do we further need to invest? And where are our adversaries' capabilities strongest? What keeps you awake at night should conflict ever break out and we need to confront this?</t>
   </si>
   <si>
@@ -568,9 +520,6 @@
     <t>412532</t>
   </si>
   <si>
-    <t>Tulsi Gabbard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman.    Gentlemen, welcome. Aloha. I am not going to harp on this, but I will mention it quickly. I know it has been talked earlier about the Aegis Ashore on Kauai and just the paramount importance of protecting Hawaii and the United States from North Korea's threat.    But, Admiral Harris, I would like to talk to you a little bit about India. I know you have a trip very soon to go and visit India. Two things: there is a potential sale of eight F-16s to Pakistan that I and other Members of Congress have expressed very serious concerns about, given the fact that Pakistan has long harbored and given safe haven to various terrorist groups that continue to launch destabilizing attacks within India as well as Afghanistan; the recent release of Hafiz Saeed, one of the masterminds of the 2008 Mumbai terrorist attack, where six U.S. citizens were killed, even at the protests of the United States.    There are a number of other concerns that we have. But, in particular, I am wondering if you can talk about how, as you and others have spoken of the importance of this opportunity to strengthen our relationship with India as we head into a strong partnership into the future and the benefits that that brings us, what impact could this sale of F-16s have on our relationship with India and the work that you and others are doing to strengthen that?</t>
   </si>
   <si>
@@ -586,9 +535,6 @@
     <t xml:space="preserve">    Ms. Gabbard. Great.    Thank you, Admiral Harris. I appreciate the leadership that you have taken, in particular on strengthening this relationship and recognizing the importance of it in our overall strategy within the Asia-Pacific. Thank you.    The Chairman. Mr. O'Rourke.</t>
   </si>
   <si>
-    <t>O'Rourke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    Admiral, I would like to ask you to discuss and provide some guidance for me and others on how to approach the issue of cost sharing for our obligations and the benefits that we provide in the Pacific.    The easy way for me to look at it when it comes to Europe is through the 27 other NATO members who have a target of spending at least 2 percent of GDP on defense, even though only 4 of them today are doing that. But it is something that I can ask of our allies who enjoy the benefit of the U.S. disproportionate presence there and defense capacity.    How should I look at that when it comes to Asia and the Pacific?</t>
   </si>
   <si>
@@ -604,9 +550,6 @@
     <t>412533</t>
   </si>
   <si>
-    <t>Tammy Duckworth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Duckworth. Thank you, Mr. Chairman.    Admiral Harris, it is good to see you here again.    My question is actually for General Scaparrotti. It has to do with the Army's ARI [Aviation Restructure Initiative] and how that is going to affect the combat aviation brigades in Korea. In Korea, the Army will be relying on rotational forces if this ARI is complete, as opposed to a CAB that is stationed there.    The National Commission on the Future of the Army recommended keeping a CAB permanently assigned to the peninsula, because short-term rotations--and I am quoting--``short-term rotations will not permit aviation units the time needed to properly mitigate risks posed by the threat situation in Korea, and, specifically, rotating units will not have time to master the geographic and environmental conditions well enough to operate effectively and safely in the region.''    Obviously, Korea is a country with numerous terrain and extreme weather conditions. Our aviation crews will have to be able to operate in all sorts of environments, and they are, but a permanently assigned unit there will be better able to handle and maintain proficiency.    Permanently stationing a CAB in Korea would come with a significant upfront price tag as well as enduring costs. So, despite the operational concerns, the fiscal reality is that it just might not be realistic. Your written testimony lays out an array of complex threats that we face on the peninsula. So I think that, despite the cost, it is worth discussing.    As a commander, which force structure--a rotational force or a permanently stationed combat aviation brigade--do you feel best enables you to meet the threats and operational needs in the peninsula?    General Scaparrotti. Thank you for the question.    We have a permanently stationed combat aviation brigade there now, and there is discussion about perhaps going to a rotational one. I completely agree with the commission in terms of this is an environment that is difficult to fly in, mountainous, weather. It is an environment that they also have to fly in close proximity to an adversary that will shoot at them.</t>
   </si>
   <si>
@@ -637,15 +580,9 @@
     <t>409888</t>
   </si>
   <si>
-    <t>Bill Shuster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shuster. You stated in the hearing that you would rely on two more battalions of Patriot if we ``go to crisis'' on the Korean peninsula. Do you believe the overall inventories of Patriot missiles and total number of Patriot battalions are sufficient to be able to deliver this capability?    General Scaparrotti. [The information referred to is classified and retained in the committee files.]                                 ______                                 </t>
   </si>
   <si>
-    <t>Castro</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Castro. You mentioned in your written testimony that the U.S. relationship with Japan is a cornerstone of regional stability. Can you speak to how we can further leverage our relationship with Japan to maintain peace and security in the region?</t>
   </si>
   <si>
@@ -655,9 +592,6 @@
     <t>412271</t>
   </si>
   <si>
-    <t>Mike Coffman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Coffman. Please describe the importance of space capabilities, such as communications, missile warning, and reconnaissance is to your mission. Related, to what extent are you concerned with our posture to adequately respond to the growing Chinese counterspace threats?</t>
   </si>
   <si>
@@ -673,9 +607,6 @@
     <t>412417</t>
   </si>
   <si>
-    <t>Austin Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. What additional resources do you need to dominate the cyber-battlefield? And, how would the creation of a Cyber Command enhance your ability to oppose technologically advanced adversaries?</t>
   </si>
   <si>
@@ -713,9 +644,6 @@
   </si>
   <si>
     <t>412409</t>
-  </si>
-  <si>
-    <t>Richard B. Nugent</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Nugent. We know the Asia-Pacific is a key region for illicit trafficking of everything from counterfeit goods to narcotics to humans. How do you see illicit trafficking networks affecting U.S. policy interests in the Asia-Pacific region and what assets and capabilities do we have to tackle these threats? Additionally, are we seeing any indications that any of these illicit funds are being used by foreign terrorist organizations, or local insurgencies in places like Thailand or Burma, to support their operations?</t>
@@ -1117,11 +1045,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1143,11 +1069,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1167,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1193,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1219,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1247,11 +1165,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1271,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1299,11 +1213,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1325,11 +1237,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1351,11 +1261,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1375,13 +1283,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1401,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1427,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>26</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1453,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1479,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1505,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1531,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1557,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1583,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
         <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1609,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1635,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1661,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1687,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1713,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" t="s">
-        <v>43</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1739,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" t="s">
-        <v>43</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1765,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" t="s">
-        <v>43</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1791,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1817,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
         <v>43</v>
-      </c>
-      <c r="H29" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1843,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1869,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" t="s">
-        <v>43</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1895,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1921,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" t="s">
-        <v>43</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1947,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1973,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" t="s">
-        <v>43</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1999,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2025,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" t="s">
-        <v>43</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2051,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2077,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" t="s">
-        <v>43</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2103,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2129,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" t="s">
-        <v>43</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2155,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2181,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" t="s">
-        <v>43</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2207,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2233,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" t="s">
-        <v>43</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2259,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2285,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2311,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2337,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2363,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
         <v>64</v>
-      </c>
-      <c r="G50" t="s">
-        <v>65</v>
-      </c>
-      <c r="H50" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2389,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2415,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2441,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G53" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2467,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2493,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>73</v>
-      </c>
-      <c r="G55" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2519,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2545,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
-      </c>
-      <c r="G57" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2571,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2597,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>73</v>
-      </c>
-      <c r="G59" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
         <v>74</v>
-      </c>
-      <c r="H59" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2623,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2649,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>73</v>
-      </c>
-      <c r="G61" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2675,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>73</v>
-      </c>
-      <c r="G62" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2701,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>85</v>
-      </c>
-      <c r="G63" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2727,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2753,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>85</v>
-      </c>
-      <c r="G65" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2779,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2805,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>85</v>
-      </c>
-      <c r="G67" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2831,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
-      </c>
-      <c r="G68" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2857,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>93</v>
-      </c>
-      <c r="G69" t="s">
-        <v>94</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2883,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2909,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>93</v>
-      </c>
-      <c r="G71" t="s">
-        <v>94</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2935,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>93</v>
-      </c>
-      <c r="G72" t="s">
-        <v>94</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2961,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2987,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>93</v>
-      </c>
-      <c r="G74" t="s">
-        <v>94</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3013,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3039,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
+        <v>85</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
         <v>93</v>
-      </c>
-      <c r="G76" t="s">
-        <v>94</v>
-      </c>
-      <c r="H76" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3065,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3091,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>93</v>
-      </c>
-      <c r="G78" t="s">
-        <v>94</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3117,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>93</v>
-      </c>
-      <c r="G79" t="s">
-        <v>94</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3143,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>106</v>
-      </c>
-      <c r="G80" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3169,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3195,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>106</v>
-      </c>
-      <c r="G82" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3221,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3247,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>106</v>
-      </c>
-      <c r="G84" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3273,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3299,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>106</v>
-      </c>
-      <c r="G86" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3325,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3351,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
+        <v>97</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
         <v>106</v>
-      </c>
-      <c r="G88" t="s">
-        <v>107</v>
-      </c>
-      <c r="H88" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3377,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3403,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>106</v>
-      </c>
-      <c r="G90" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3429,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3455,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>106</v>
-      </c>
-      <c r="G92" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3481,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>121</v>
-      </c>
-      <c r="G93" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3507,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>121</v>
-      </c>
-      <c r="G94" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3533,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>121</v>
-      </c>
-      <c r="G95" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3559,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" t="s">
-        <v>126</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3585,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3611,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" t="s">
-        <v>126</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3637,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3663,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" t="s">
-        <v>126</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3689,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3715,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>15</v>
-      </c>
-      <c r="G102" t="s">
-        <v>126</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3741,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>134</v>
-      </c>
-      <c r="G103" t="s">
-        <v>135</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3767,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>15</v>
-      </c>
-      <c r="G104" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3793,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>134</v>
-      </c>
-      <c r="G105" t="s">
-        <v>135</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3819,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>15</v>
-      </c>
-      <c r="G106" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3845,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>134</v>
-      </c>
-      <c r="G107" t="s">
-        <v>135</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3871,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>15</v>
-      </c>
-      <c r="G108" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3897,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>134</v>
-      </c>
-      <c r="G109" t="s">
-        <v>135</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3923,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>15</v>
-      </c>
-      <c r="G110" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3949,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>134</v>
-      </c>
-      <c r="G111" t="s">
-        <v>135</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3975,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>145</v>
-      </c>
-      <c r="G112" t="s">
-        <v>146</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4001,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>15</v>
-      </c>
-      <c r="G113" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4027,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>145</v>
-      </c>
-      <c r="G114" t="s">
-        <v>146</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4053,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>145</v>
-      </c>
-      <c r="G115" t="s">
-        <v>146</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4079,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>15</v>
-      </c>
-      <c r="G116" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4105,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>145</v>
-      </c>
-      <c r="G117" t="s">
-        <v>146</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4131,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>15</v>
-      </c>
-      <c r="G118" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4157,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>145</v>
-      </c>
-      <c r="G119" t="s">
-        <v>146</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4183,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>15</v>
-      </c>
-      <c r="G120" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4209,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>145</v>
-      </c>
-      <c r="G121" t="s">
-        <v>146</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4235,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>145</v>
-      </c>
-      <c r="G122" t="s">
-        <v>146</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4261,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>15</v>
-      </c>
-      <c r="G123" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4287,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
+        <v>132</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
         <v>145</v>
-      </c>
-      <c r="G124" t="s">
-        <v>146</v>
-      </c>
-      <c r="H124" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4313,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>145</v>
-      </c>
-      <c r="G125" t="s">
+        <v>132</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
         <v>146</v>
-      </c>
-      <c r="H125" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4339,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>161</v>
-      </c>
-      <c r="G126" t="s">
-        <v>162</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4365,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>161</v>
-      </c>
-      <c r="G127" t="s">
-        <v>162</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4391,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>161</v>
-      </c>
-      <c r="G128" t="s">
-        <v>162</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4417,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>161</v>
-      </c>
-      <c r="G129" t="s">
-        <v>162</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4443,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>161</v>
-      </c>
-      <c r="G130" t="s">
-        <v>162</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4469,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>161</v>
-      </c>
-      <c r="G131" t="s">
-        <v>162</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4495,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>15</v>
-      </c>
-      <c r="G132" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4521,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>161</v>
-      </c>
-      <c r="G133" t="s">
-        <v>162</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4547,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>15</v>
-      </c>
-      <c r="G134" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4573,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>161</v>
-      </c>
-      <c r="G135" t="s">
-        <v>162</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4599,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>173</v>
-      </c>
-      <c r="G136" t="s">
-        <v>174</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4625,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>15</v>
-      </c>
-      <c r="G137" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4651,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>173</v>
-      </c>
-      <c r="G138" t="s">
-        <v>174</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4677,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>173</v>
-      </c>
-      <c r="G139" t="s">
-        <v>174</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4703,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>15</v>
-      </c>
-      <c r="G140" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4729,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>173</v>
-      </c>
-      <c r="G141" t="s">
-        <v>174</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4755,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>15</v>
-      </c>
-      <c r="G142" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4781,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>173</v>
-      </c>
-      <c r="G143" t="s">
-        <v>174</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4807,13 +4451,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>183</v>
-      </c>
-      <c r="G144" t="s">
-        <v>184</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4833,13 +4475,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>15</v>
-      </c>
-      <c r="G145" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4859,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>183</v>
-      </c>
-      <c r="G146" t="s">
-        <v>184</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4885,13 +4523,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>15</v>
-      </c>
-      <c r="G147" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4911,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>183</v>
-      </c>
-      <c r="G148" t="s">
-        <v>184</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4937,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>15</v>
-      </c>
-      <c r="G149" t="s">
-        <v>190</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4963,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>15</v>
-      </c>
-      <c r="G150" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4989,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>15</v>
-      </c>
-      <c r="G151" t="s">
-        <v>190</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5015,13 +4643,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>15</v>
-      </c>
-      <c r="G152" t="s">
-        <v>190</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5041,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>195</v>
-      </c>
-      <c r="G153" t="s">
-        <v>196</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5067,13 +4691,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>195</v>
-      </c>
-      <c r="G154" t="s">
-        <v>196</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5093,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>195</v>
-      </c>
-      <c r="G155" t="s">
-        <v>196</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5119,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>195</v>
-      </c>
-      <c r="G156" t="s">
-        <v>196</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5145,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>195</v>
-      </c>
-      <c r="G157" t="s">
-        <v>196</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5171,13 +4787,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>15</v>
-      </c>
-      <c r="G158" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5197,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>15</v>
-      </c>
-      <c r="G159" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5223,13 +4835,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>15</v>
-      </c>
-      <c r="G160" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5249,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>25</v>
-      </c>
-      <c r="G161" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5275,13 +4883,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>206</v>
-      </c>
-      <c r="G162" t="s">
-        <v>207</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5301,13 +4907,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>15</v>
-      </c>
-      <c r="G163" t="s">
-        <v>209</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5327,13 +4931,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>15</v>
-      </c>
-      <c r="G164" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5353,13 +4955,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>212</v>
-      </c>
-      <c r="G165" t="s">
-        <v>213</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5379,13 +4979,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>15</v>
-      </c>
-      <c r="G166" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5405,13 +5003,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>212</v>
-      </c>
-      <c r="G167" t="s">
-        <v>213</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5431,13 +5027,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>15</v>
-      </c>
-      <c r="G168" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5457,13 +5051,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>218</v>
-      </c>
-      <c r="G169" t="s">
-        <v>219</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5483,13 +5075,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>15</v>
-      </c>
-      <c r="G170" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5509,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>218</v>
-      </c>
-      <c r="G171" t="s">
-        <v>219</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5535,13 +5123,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>218</v>
-      </c>
-      <c r="G172" t="s">
-        <v>219</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5561,13 +5147,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>15</v>
-      </c>
-      <c r="G173" t="s">
-        <v>126</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5587,13 +5171,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>15</v>
-      </c>
-      <c r="G174" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5613,13 +5195,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>15</v>
-      </c>
-      <c r="G175" t="s">
-        <v>126</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5639,13 +5219,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>15</v>
-      </c>
-      <c r="G176" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5665,13 +5243,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>15</v>
-      </c>
-      <c r="G177" t="s">
-        <v>126</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5691,13 +5267,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>15</v>
-      </c>
-      <c r="G178" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5717,13 +5291,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>15</v>
-      </c>
-      <c r="G179" t="s">
-        <v>126</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5743,13 +5315,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>15</v>
-      </c>
-      <c r="G180" t="s">
-        <v>126</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5769,13 +5339,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>232</v>
-      </c>
-      <c r="G181" t="s">
-        <v>233</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99625.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99625.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="254">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400097</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you very much, Mr. Chairman.    And if I may, I want to ask unanimous consent to submit our Ranking Member Smith's statement for the record.    The Chairman. Without objection.    [The prepared statement of Mr. Smith can be found in the Appendix on page 41.]</t>
   </si>
   <si>
@@ -61,6 +70,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Harris</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Admiral Harris. Thank you, Chairman Thornberry and Representative Davis and distinguished members. It is an honor for me to appear before this committee. I am pleased to be here with General Scaparrotti to discuss how U.S. Pacific Command [PACOM] is protecting America's interests across the vast Indo-Asia-Pacific.    Since taking command of PACOM last May, I have had the extraordinary privilege of leading the 400,000 soldiers, sailors, airmen, marines, Coast Guardsmen, and civilians serving our Nation. These dedicated men and women and their families are doing an amazing job, and I am proud to serve alongside them.    To provide you some issues of concern, I would like to briefly highlight a few regional issues. As China continues its pattern of destabilizing militarization of the South China Sea, we have resumed our freedom of navigation operations there, a waterway vital to America's prosperity, where $5.3 trillion in trade traverses each year.    General Scaparrotti and I remain aligned in dealing with North Korea's recent underground nuclear test, followed by its ballistic missile launch.    A revanchist Russia is revitalizing its ability to execute long-range strategic patrols in the Pacific to include the basing of its newest strategic ballistic missile submarine and last month's bomber flights around Japan.    Recent terrorist attacks in Bangladesh and Indonesia underscore the fact that violent Islamic extremism is a global concern that must be crushed.    We have continued to strengthen our alliances and partnerships. Japan's peace and security legislation authorizing limited collective self-defense will take effect this year. This legislation and the revised guidelines for U.S.-Japan defense cooperation will significantly increase Japan's ability to work with us.    Thanks to the great leadership of General Scaparrotti here, South Korea and the United States have taken a strong and unified stance to maintain peace and stability on the Korean Peninsula. In the face of recent North Korean aggression, PACOM hosted a tri-CHOD [Chief of Defense] meeting between U.S. Chairman of the Joint Chiefs, General Dunford; Japan Chairman, Admiral Kawano; and South Korea Chairman, General Lee. Trilateral cooperation between Japan, South Korea, and the United States is a priority, and I am doing everything I can to enhance it.    Our alliance with the Philippines took an important step forward when the Philippine Supreme Court recently upheld the Enhanced Defense Cooperation Agreement, or EDCA, which will provide significant partnership and access benefits.    I am also excited about our growing relationship with India, where I will visit next week. As the world's two largest democracies, we are uniquely poised to help bring greater security and prosperity to the entire region.    Two visionary policies are now coinciding as the United States rebalances west to the Indo-Asia-Pacific and India implements its ``Act East'' policy. Last month's Malabar exercise between India, Japan, and the United States shows the security interconnectedness of the Indian Ocean, Asia, and the Pacific Ocean.    I rely heavily on Australia, not only for its advanced military capabilities across all domains but, importantly, for Australia's warfighting experience and leadership in operations around the world.    These examples clearly demonstrate to me that the United States is a security partner of choice in the Indo-Asia-Pacific. It is also why I believe that our strategic rebalance has taken hold. Given that four of the five strategic problem sets identified by Secretary Carter--China, North Korea, Russia, and ISIL [Islamic State of Iraq and the Levant]--are in our region, I would say that we can't rebalance fast enough. But there is more work to do, and we must not lose the momentum.    So I ask this committee to support continued investment in future capabilities. I need weapons systems of increased lethality that go faster, go further, and are more survivable. If funding uncertainties continue, the U.S. will experience reduced warfighting capabilities, so I urge the Congress to repeal sequestration.    Finally, I would like to thank this committee and the whole Congress for your enduring support to PACOM and to the men and women in uniform, our civilian teammates, and our families.    Thank you. And I look forward to your questions.    [The prepared statement of Admiral Harris can be found in the Appendix on page 43.]    The Chairman. Thank you, sir.    General.    General Scaparrotti. Chairman Thornberry, Ranking Member Davis, and distinguished members of the committee, I am honored to testify today as the Commander of the United Nations Command, Combined Forces Command, and the United States Forces-Korea [USFK]. On behalf of the American soldiers, sailors, airmen, and marines, and our civilians serving in the Republic of Korea, thank you for your support.    Admiral Harris, thank you for your vision and the professional support of the entire PACOM team for USFK.    I have prepared brief opening remarks, and I appreciate that my written posture statement is being entered into the record.    Since my last testimony, our U.S.-ROK [Republic of Korea] alliance has continued to focus on advancing our combined capabilities. Some of these advanced capabilities include the establishment of the first U.S.-ROK combined division, additional rotations of U.S. forces to the peninsula, the execution of our annual combined training exercises, and steady progress on our $10.7 billion plan to relocate U.S. forces in Korea. Furthermore, the Republic of Korea has improved its capabilities with the recent establishment of the Korean Air and Missile Defense System and Center and the Allied Korea Joint Command and Control System.    The Republic of Korea has also invested in modern equipment, with the purchase of the F-35 Joint Strike Fighter, Global Hawk, the Patriot Advanced Capability-3 missile upgrades, and also AH-64 Apache helicopters. These alliance advances help counter the real and the proximate North Korean threat.    North Korea continues to conduct provocations and to resource its large conventional force. And, of greater significance, North Korea continues to aggressively develop nuclear weapons and ballistic missiles in direct violation of the U.N. Security Council resolutions, as demonstrated with its fourth nuclear test and its fifth TD-2 launch in January and February.    In regards to this threat, my top concern remains the potential for a North Korean provocation to start a cycle of action and counteraction which could quickly escalate, similar to what we experienced this past August. While I am proud to report that our alliance stood shoulder to shoulder and deescalated the situation, it could have spiraled out of control and demonstrates why we must remain ready to ``fight tonight.''    To maintain this level of readiness, we will continue to focus on sustaining, strengthening, and transforming the alliance, with an emphasis on our combined readiness in four critical areas. First, ISR [intelligence, surveillance, and reconnaissance] remains my top readiness challenge. CFC [Combined Forces Command] USFK requires additional persistent all-weather ISR capabilities, as well as dependable moving target indicator support to maintain situational awareness and provide adequate decision space.    Second, it is critical for the alliance to establish a layered and interoperable ballistic missile defense. To advance this goal in the near future, we will begin bilateral consultations regarding the feasibility of deploying the THAAD [Terminal High Altitude Area Defense] system to the Republic of Korea, which would complement the Patriot system's capabilities.    Third, we must maintain an adequate quantity of critical munitions to ensure alliance supremacy in the early days of conflict on the peninsula. This requirement is further amplified by the approaching loss of cluster munitions due to shelf-life expiration and the impending ban.    And, fourth, we must focus on command, control, communications, computers, and intelligence, or C4I. Both the United States and the Republic of Korea are investing in new tactical equipment that will comprise a reliable C4I architecture, but more is required.    In closing, I would like to express how proud I am of our service members, our civilians, and their families serving in the Republic of Korea, who never lose sight of the fact that they are serving on freedom's frontier.    I would also like to recognize Ambassador Mark Lippert, Admiral Harry Harris, and the U.S. and ROK senior leaders for their enduring commitment to our mission.    I thank you and this committee for your support, and I look forward to your questions.    [The prepared statement of General Scaparrotti can be found in the Appendix on page 67.]    The Chairman. Thank you, sir.    Let me ask you each to address really a very basic question, and that is, do you have the military forces required to fulfill the missions you have been assigned?    And, Admiral Harris, you mentioned the freedom of navigation operations, which have been underway. From what one reads, they are pretty few and far between and don't seem to be making much of a difference, because we also read that the Chinese have put surface-to-air missiles on these new islands they are constructing. So if you could address, broadly, in your theater, do you have the military forces to carry out the missions you are assigned, and then, more specifically, the Chinese South China Sea issues that have arisen.</t>
   </si>
   <si>
@@ -88,6 +100,12 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman.    And, Admiral, General, thank you so much for your service. I want to thank you, the service members, military families. What a commitment of protecting American families, also protecting our great allies.    And, Admiral Harris, I am particularly grateful that I have had the opportunity to visit with you in the past. And, to me, you are a living example of America's alliance with Japan. It is just, to me, so historic and inspiring to know that we have a Japanese-American as the U.S. Pacific commander at Pearl Harbor. How far we have come. And just being in your presence has just been so positive and has to be reassuring to the people all over Asia.    Also, I am very grateful that my family has had an association with Asia. My dad served in the Flying Tigers during World War II, and I grew up hearing from him a great affection for the people of China and the people of India. And so I am hopeful that indeed positive can continue to advance, but with that in mind, Admiral, I appreciate your interest in maintaining our technological superiority, and later today, there will be a subcommittee hearing of the Emerging Threats and Capabilities Subcommittee on the Department of Defense science and technology programs. These issues continue to be of crucial importance to this committee, particularly the chairman, and this is key to our warfighters' future success.    Could you please describe what do you see as the right balance between investing in future capabilities, like the third offset strategy, and getting the commander what he needs now? How has the fiscal year 2017 budget request prioritized the modernization affecting your command?</t>
   </si>
   <si>
@@ -109,6 +127,12 @@
     <t>400232</t>
   </si>
   <si>
+    <t>Larsen</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Larsen. Thank you.    Thank you, Mr. Chairman.    And thanks, gentlemen, for making it out.    You know, on the West Coast, it is not that far to go to Korea, so maybe, from here, it is, but it is not that far from home.    So we get a lot of questions about when North Korea does things and when China does things. First, for Admiral Harris, a couple reports have come out recently, one looking at the rebalance strategy and what can be done to improve that and enhance that. One suggestion--this is out of CSIS [Center for Strategic and International Studies]--one suggestion was a western Pacific joint task force, and I was wondering what your opinions about that are. And in the answer, if you could relate that to building partnership capabilities and whether or not, much like we do with NATO [North Atlantic Treaty Organization], there is a NATO commitment of a 2 percent of GDP [gross domestic product], but we can do that in a formal structure, if there is a value of informal commitments from our friends and allies in the region to invest in their capabilities to support regional objectives.    And then I have got a question for the general after that.</t>
   </si>
   <si>
@@ -133,6 +157,12 @@
     <t>400341</t>
   </si>
   <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Chairman.    General Scaparrotti, I wanted to follow up on that area. Given Kim Jong-un's erratic behavior and recent nuclear tests and ballistic missile tests, what capabilities do you need to make sure you can maintain the security of your forces as well as the ROK?    General Scaparrotti. As I said, the most important to me is ISR, because it allows me to be in the proper posture to be able to get ahead of whatever it is he intends to do. And on the Korean Peninsula, I have got a very large conventional force in very close proximity to Seoul. That is one problem set. And then I have their asymmetric problem set, which is primarily their nuclear; their missile; their SOF [special operations] forces, the largest SOF forces in the world, 60,000 strong; long-range artillery capability; and their cyber. Many of those are deeper into the country, so it is a very difficult ISR challenge, probably one of the toughest in the world, given the terrain, mountainous.</t>
   </si>
   <si>
@@ -196,6 +226,12 @@
     <t>400041</t>
   </si>
   <si>
+    <t>Bordallo</t>
+  </si>
+  <si>
+    <t>Madeleine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you, Mr. Chairman.    I would like to remind my colleagues that my home is next door to North Korea, when we talk about distances.    So, Admiral and General, thank you for your testimony and for your service and leadership.    Mr. Wittman and I were just out in your region a day ago, and I appreciated the opportunity to get updates on the progress we are making in realigning forces and trying to posture our force to respond to the environment in the region. One of the things that people become aware of when traveling in the region is the tyranny of distance. This is never more evident than when it comes to making sure we maintain a forward and deployed fleet.    And, Admiral, you noted the need for more submarines as a top priority yesterday. To support this, I believe it is critical that we maintain robust ship repair and dry-dock capabilities, including at a nuclear capable level, in the western Pacific.    Now, you wrote a letter to the Guam Economic Authority stating, and I quote: ``The Navy has consistently stated a robust ship repair capability in Guam as a matter of strategic importance and remains an operational priority for the Pacific Fleet.''    Do you continue to share this view, Admiral?</t>
   </si>
   <si>
@@ -220,6 +256,12 @@
     <t>412255</t>
   </si>
   <si>
+    <t>Wittman</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman.    Gentlemen, thank you so much for your service and thank you for the great job that you are doing in the Asia-Pacific. As Ms. Bordallo said, we had a great trip there.    Admiral Harris, I want to ask your perspective. As we got the laydown on the situation there in the Asia-Pacific, one of the things that was really compelling to me was the effort by the Chinese in the South China Sea. As you pointed out, their efforts there on Woody Island and the Paracels is something that is done. There is nothing that we can do to necessarily reverse that. The place, though, where I do believe we can have an impact is in the Spratly Islands. As you know, over 3,000 acres of reclamation there, those places are set up specifically, I believe, for them to militarize those areas.    As you spoke in your opening testimony, you talked about submarines as one of the elements that you have as a critical part of force structure. There is also a suggestion of a second aircraft carrier. In looking at what we can do to deter or prevent further militarization of the South China Sea, give me your perspective on the priority that you would need as far as naval assets, and I am asking you submarines versus the second aircraft carrier. Give me what your priorities would be in that situation.</t>
   </si>
   <si>
@@ -253,6 +295,9 @@
     <t>412193</t>
   </si>
   <si>
+    <t>Courtney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman.    And thank you to both witnesses for your leadership and your testimony this morning.    Admiral, on page 5 of your testimony, you pretty much laid out what is sort of the guideposts for the sovereignty claims issues, which we have discussed this morning with the island building, and basically, it says, we encourage all countries to uphold international laws reflected in the Law of the Sea Convention. Should the United States ratify UNCLOS [United Nations Convention on the Law of the Sea], the Law of the Sea treaty?</t>
   </si>
   <si>
@@ -274,6 +319,12 @@
     <t>400141</t>
   </si>
   <si>
+    <t>Franks</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Franks. Well, thank you, Mr. Chairman.    And thank you, General Scaparrotti and Admiral Harris, for being here--all your entourage--for your commitment to protecting us all. We appreciate it. Sometimes you don't get told that enough.    Admiral Harris, I guess I will start out with a really easy question: Are you aware of any collusion between Iran and North Korea with regards to North Korea's intermittent but ongoing nuclear and missile tests?</t>
   </si>
   <si>
@@ -310,6 +361,12 @@
     <t>412254</t>
   </si>
   <si>
+    <t>Tsongas</t>
+  </si>
+  <si>
+    <t>Niki</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman.    And thank you to our witnesses for being here.    I too just returned from Japan. I was part of a congressional delegation that spent 3 days in Tokyo and 2 days in Okinawa. And I had spent years there--many years ago, I was a high school student there.    And as I hadn't been back in the interim, I really was struck by the tremendous changes in that country but also in the relationship we have developed with Japan. Because at the time I lived there, it was really not too long after World War II, and there was certainly an effort to constrain Japan militarily and, yet, to reassure it about its being protected.    So, as we have moved forward, we are in a very different environment. And I appreciate the rationale for it, as things have really changed in that part of the--in the Asia-Pacific area.    And, Admiral, you referenced the peace and security legislation that Japan just passed that really authorizes it to engage in a more expansive way in regional security efforts. And one of the questions I had there and posed there was, is money following that? As Japan is sort of--as the ties are being loosened on what it can do and cannot do militarily, is funding following that effort so that they absorb a little more of the financial responsibility for protecting that part of the world?</t>
   </si>
   <si>
@@ -352,6 +409,12 @@
     <t>412567</t>
   </si>
   <si>
+    <t>Bridenstine</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman.    And thank you both for being here. It is an honor to have you before our committee. Certainly, I have spent plenty of time in the Pacific as a Navy pilot myself, now serving in the Oklahoma Air National Guard.    General Scaparrotti, I wanted to ask you or actually share with you one of my big concerns I have heard from one of my constituents. I want to make you aware of a recent Army regulation change regarding dining facility use for rotationally deployed forces under your command. Effective February 15, 2016, the Army declared essential unit messing for rotationally deployed soldiers serving in the Pacific. In other words, all soldiers deployed temporary duty to Korea must use the dining facility, the DFAC.    This policy will literally take money out of soldiers' pockets, hundreds of dollars per month, in two ways: First, the Army will charge for meals at the DFAC through automatic payroll deductions. That is automatic payroll deductions. These deductions will occur whether or not a soldier actually uses the DFAC. And, as you are aware, when you do missions in these areas, those missions happen during breakfast, happen during lunch, and you are not able to use the DFAC. So soldiers will have money deducted, even though they are not using the DFAC.    Second, the Army is also taking away their daily food allowance, known as the government meal rate. I have a constituent in the 10th Combat Aviation Brigade currently at Camp Humphreys. The Army's bureaucratic jiggery-pokery will reduce his paycheck over $700 per month through the automatic DFAC deduction and stopping meal allowances. I want to repeat that: $700 per month. These soldiers are not going to Korea for a week or even a month; they are going for 9 months. And so when you lose $700 a month, that ends up being a good chunk of money.    In contrast, a soldier at Camp Humphreys, under the permanent change of station orders, is apparently exempt from the automatic meal deduction. Aviation units, such as the 10th CAB [Combat Aviation Brigade], don't plan training or missions around the whims of the DFAC, as I have already talked about. That is why the food allowance exists in the first place. That is why it was there.    And I would like to show you some pictures here of what is going on at the DFAC in Korea. There are a couple of pictures. Can we just slide through a few more?    [The slides referred to were not available at the time of printing.]</t>
   </si>
   <si>
@@ -361,6 +424,9 @@
     <t xml:space="preserve">    Mr. Bridenstine. Okay.    And, Mr. Chairman, before I yield back, I just want to note that I want to introduce legislation to make sure that this is taken care of. Thank you.    I yield back.    The Chairman. Mr. Takai.</t>
   </si>
   <si>
+    <t>Takai</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Takai. Thank you, Mr. Chairman.    And thank you, Admiral Harris, General Scaparrotti, for being here.    Admiral Harris, again, regarding the Aegis Ashore facility--or the hope for a facility--North Korea's nuclear test in January underscores the concern that we have, that North Korea may develop the ability to place a bomb on a long-range ballistic missile that could reach the U.S. West Coast. I referred to public comments you made that converting the Aegis missile defense test site in Hawaii into a combat-ready facility is a good idea to help protect the U.S. mainland.    Since we have assets on Kauai, why not use them? How would this permanent land version add to U.S. defense needs? And what would it take to integrate the site into a larger U.S. ballistic missile defense system?</t>
   </si>
   <si>
@@ -385,6 +451,12 @@
     <t>412601</t>
   </si>
   <si>
+    <t>Byrne</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Byrne. Thank you, Mr. Chairman.    Gentlemen, thank you for being here today.    Admiral Harris, let me ask you some questions about the littoral combat ship [LCS] program. You have stated that the littoral combat ship was a vital capability for you to engage through the PACOM area of operation. You note the LCS was needed to do missions not suited for DDGs, destroyers. How beneficial is having such a capability in your AOR [area of responsibility] to patrol waters not easily navigated by larger platforms?</t>
   </si>
   <si>
@@ -415,6 +487,12 @@
     <t>412199</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    And thank you, gentlemen, for your service.    The U.S. PAC [Pacific] Command has given authorization in the fiscal year 2016 NDAA's South China Sea initiative to build our maritime security in the region and improve the domain awareness of our partners in the region. In your opinion, does this authority need to be expanded, and if so, what changes would you like to see made?</t>
   </si>
   <si>
@@ -460,6 +538,12 @@
     <t>412611</t>
   </si>
   <si>
+    <t>McSally</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman.    Thank you, gentlemen.    General Scaparrotti, you said earlier that should we have to be involved--God forbid--in military conflict on the peninsula, it would be more akin to Korea or World War II: complex, high casualty. Are you concerned at all--we have heard, you know, the service chiefs come before us in the last year, sequestration, the impact, and us being in 15 years of a counterinsurgency mindset has had a real impact on the readiness of units. The squadron I commanded was ready to head over there on 24 hours' notice, but a lot of the readiness has really been degraded across the joint force that are on a TPFDD [time-phased force and deployment data] ready to go for supporting that kind of contingency. Are you concerned at all about the real readiness levels of being able to respond quickly?    General Scaparrotti. Yes, ma'am. Thank you. Yes, I am. As you know, all of our services are really coming out of a bathtub in readiness, and it has been improving because of the increased funding. And we appreciate that support, but it is going to be some time before our forces are at a point where all of the units have now been through training that prepares them really for a complex environment, high-intensity conflict.    I can speak specifically of the Army. It takes time for us to get units through those complex rotations at our national training centers. We have got younger generations who haven't combined fires, for instance, et cetera, fire and maneuver in large formations. Those are things that an individual, small unit, and larger unit training that is complex.    So I am concerned about it. I know that all the services are focused on this, and we, on the peninsula, are as well. So, when we do our exercises and we bring units in, that is the kind of training at each level that we are focused on.</t>
   </si>
   <si>
@@ -493,6 +577,12 @@
     <t>400230</t>
   </si>
   <si>
+    <t>Langevin</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    Admiral Harris and General Scaparrotti, thank you very much for your testimony today and your service to our Nation.    For years now, we have underinvested in our EW [electronic warfare] capabilities, where our adversaries have actually invested heavily in those areas. Now, some of this you may not be able to go into an open session, but to the degree that you can, where are we held risk because of that underinvestment as we are shifting to the Asia-Pacific region? And how overmatched are we? And what areas do we further need to invest? And where are our adversaries' capabilities strongest? What keeps you awake at night should conflict ever break out and we need to confront this?</t>
   </si>
   <si>
@@ -520,6 +610,12 @@
     <t>412532</t>
   </si>
   <si>
+    <t>Gabbard</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman.    Gentlemen, welcome. Aloha. I am not going to harp on this, but I will mention it quickly. I know it has been talked earlier about the Aegis Ashore on Kauai and just the paramount importance of protecting Hawaii and the United States from North Korea's threat.    But, Admiral Harris, I would like to talk to you a little bit about India. I know you have a trip very soon to go and visit India. Two things: there is a potential sale of eight F-16s to Pakistan that I and other Members of Congress have expressed very serious concerns about, given the fact that Pakistan has long harbored and given safe haven to various terrorist groups that continue to launch destabilizing attacks within India as well as Afghanistan; the recent release of Hafiz Saeed, one of the masterminds of the 2008 Mumbai terrorist attack, where six U.S. citizens were killed, even at the protests of the United States.    There are a number of other concerns that we have. But, in particular, I am wondering if you can talk about how, as you and others have spoken of the importance of this opportunity to strengthen our relationship with India as we head into a strong partnership into the future and the benefits that that brings us, what impact could this sale of F-16s have on our relationship with India and the work that you and others are doing to strengthen that?</t>
   </si>
   <si>
@@ -535,6 +631,9 @@
     <t xml:space="preserve">    Ms. Gabbard. Great.    Thank you, Admiral Harris. I appreciate the leadership that you have taken, in particular on strengthening this relationship and recognizing the importance of it in our overall strategy within the Asia-Pacific. Thank you.    The Chairman. Mr. O'Rourke.</t>
   </si>
   <si>
+    <t>O'Rourke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    Admiral, I would like to ask you to discuss and provide some guidance for me and others on how to approach the issue of cost sharing for our obligations and the benefits that we provide in the Pacific.    The easy way for me to look at it when it comes to Europe is through the 27 other NATO members who have a target of spending at least 2 percent of GDP on defense, even though only 4 of them today are doing that. But it is something that I can ask of our allies who enjoy the benefit of the U.S. disproportionate presence there and defense capacity.    How should I look at that when it comes to Asia and the Pacific?</t>
   </si>
   <si>
@@ -550,6 +649,12 @@
     <t>412533</t>
   </si>
   <si>
+    <t>Duckworth</t>
+  </si>
+  <si>
+    <t>Tammy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Duckworth. Thank you, Mr. Chairman.    Admiral Harris, it is good to see you here again.    My question is actually for General Scaparrotti. It has to do with the Army's ARI [Aviation Restructure Initiative] and how that is going to affect the combat aviation brigades in Korea. In Korea, the Army will be relying on rotational forces if this ARI is complete, as opposed to a CAB that is stationed there.    The National Commission on the Future of the Army recommended keeping a CAB permanently assigned to the peninsula, because short-term rotations--and I am quoting--``short-term rotations will not permit aviation units the time needed to properly mitigate risks posed by the threat situation in Korea, and, specifically, rotating units will not have time to master the geographic and environmental conditions well enough to operate effectively and safely in the region.''    Obviously, Korea is a country with numerous terrain and extreme weather conditions. Our aviation crews will have to be able to operate in all sorts of environments, and they are, but a permanently assigned unit there will be better able to handle and maintain proficiency.    Permanently stationing a CAB in Korea would come with a significant upfront price tag as well as enduring costs. So, despite the operational concerns, the fiscal reality is that it just might not be realistic. Your written testimony lays out an array of complex threats that we face on the peninsula. So I think that, despite the cost, it is worth discussing.    As a commander, which force structure--a rotational force or a permanently stationed combat aviation brigade--do you feel best enables you to meet the threats and operational needs in the peninsula?    General Scaparrotti. Thank you for the question.    We have a permanently stationed combat aviation brigade there now, and there is discussion about perhaps going to a rotational one. I completely agree with the commission in terms of this is an environment that is difficult to fly in, mountainous, weather. It is an environment that they also have to fly in close proximity to an adversary that will shoot at them.</t>
   </si>
   <si>
@@ -580,9 +685,18 @@
     <t>409888</t>
   </si>
   <si>
+    <t>Shuster</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Shuster. You stated in the hearing that you would rely on two more battalions of Patriot if we ``go to crisis'' on the Korean peninsula. Do you believe the overall inventories of Patriot missiles and total number of Patriot battalions are sufficient to be able to deliver this capability?    General Scaparrotti. [The information referred to is classified and retained in the committee files.]                                 ______                                 </t>
   </si>
   <si>
+    <t>Castro</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Castro. You mentioned in your written testimony that the U.S. relationship with Japan is a cornerstone of regional stability. Can you speak to how we can further leverage our relationship with Japan to maintain peace and security in the region?</t>
   </si>
   <si>
@@ -592,6 +706,9 @@
     <t>412271</t>
   </si>
   <si>
+    <t>Coffman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Coffman. Please describe the importance of space capabilities, such as communications, missile warning, and reconnaissance is to your mission. Related, to what extent are you concerned with our posture to adequately respond to the growing Chinese counterspace threats?</t>
   </si>
   <si>
@@ -607,6 +724,12 @@
     <t>412417</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. What additional resources do you need to dominate the cyber-battlefield? And, how would the creation of a Cyber Command enhance your ability to oppose technologically advanced adversaries?</t>
   </si>
   <si>
@@ -644,6 +767,12 @@
   </si>
   <si>
     <t>412409</t>
+  </si>
+  <si>
+    <t>Nugent</t>
+  </si>
+  <si>
+    <t>Richard</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Nugent. We know the Asia-Pacific is a key region for illicit trafficking of everything from counterfeit goods to narcotics to humans. How do you see illicit trafficking networks affecting U.S. policy interests in the Asia-Pacific region and what assets and capabilities do we have to tackle these threats? Additionally, are we seeing any indications that any of these illicit funds are being used by foreign terrorist organizations, or local insurgencies in places like Thailand or Burma, to support their operations?</t>
@@ -995,7 +1124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1003,7 +1132,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1025,4325 +1154,5068 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
       <c r="H17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G26" t="s">
+        <v>47</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
+        <v>47</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G31" t="s">
+        <v>47</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G35" t="s">
+        <v>47</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G37" t="s">
+        <v>47</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G39" t="s">
+        <v>47</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G41" t="s">
+        <v>47</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G43" t="s">
+        <v>47</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G45" t="s">
+        <v>47</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G46" t="s">
+        <v>70</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G48" t="s">
+        <v>70</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G50" t="s">
+        <v>70</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G52" t="s">
+        <v>70</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G53" t="s">
+        <v>80</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G55" t="s">
+        <v>80</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G57" t="s">
+        <v>80</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G59" t="s">
+        <v>80</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G61" t="s">
+        <v>80</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G62" t="s">
+        <v>80</v>
+      </c>
       <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G63" t="s">
+        <v>93</v>
+      </c>
       <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G65" t="s">
+        <v>93</v>
+      </c>
       <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G66" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>78</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G67" t="s">
+        <v>93</v>
+      </c>
       <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G68" t="s">
+        <v>37</v>
+      </c>
       <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>85</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G69" t="s">
+        <v>101</v>
+      </c>
       <c r="H69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G70" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>85</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G71" t="s">
+        <v>101</v>
+      </c>
       <c r="H71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>85</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G72" t="s">
+        <v>101</v>
+      </c>
       <c r="H72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G73" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G74" t="s">
+        <v>101</v>
+      </c>
       <c r="H74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G75" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>85</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G76" t="s">
+        <v>101</v>
+      </c>
       <c r="H76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G77" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>85</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G78" t="s">
+        <v>101</v>
+      </c>
       <c r="H78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>85</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G79" t="s">
+        <v>101</v>
+      </c>
       <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>97</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G80" t="s">
+        <v>115</v>
+      </c>
       <c r="H80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G81" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>97</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G82" t="s">
+        <v>115</v>
+      </c>
       <c r="H82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>97</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G84" t="s">
+        <v>115</v>
+      </c>
       <c r="H84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>97</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G86" t="s">
+        <v>115</v>
+      </c>
       <c r="H86" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G87" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>97</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G88" t="s">
+        <v>115</v>
+      </c>
       <c r="H88" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G89" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>97</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G90" t="s">
+        <v>115</v>
+      </c>
       <c r="H90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G91" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>97</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G92" t="s">
+        <v>115</v>
+      </c>
       <c r="H92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>111</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G93" t="s">
+        <v>131</v>
+      </c>
       <c r="H93" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>111</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G94" t="s">
+        <v>131</v>
+      </c>
       <c r="H94" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>111</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G95" t="s">
+        <v>131</v>
+      </c>
       <c r="H95" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I95" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G96" t="s">
+        <v>136</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>136</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>136</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>136</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>122</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G103" t="s">
+        <v>145</v>
+      </c>
       <c r="H103" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I103" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G104" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>122</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G105" t="s">
+        <v>145</v>
+      </c>
       <c r="H105" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I105" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G106" t="s">
+        <v>18</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>122</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G107" t="s">
+        <v>145</v>
+      </c>
       <c r="H107" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I107" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G108" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>122</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G109" t="s">
+        <v>145</v>
+      </c>
       <c r="H109" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I109" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G110" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>122</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G111" t="s">
+        <v>145</v>
+      </c>
       <c r="H111" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>132</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G112" t="s">
+        <v>157</v>
+      </c>
       <c r="H112" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I112" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G113" t="s">
+        <v>18</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>132</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G114" t="s">
+        <v>157</v>
+      </c>
       <c r="H114" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I114" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>132</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G115" t="s">
+        <v>157</v>
+      </c>
       <c r="H115" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G116" t="s">
+        <v>18</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>132</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G117" t="s">
+        <v>157</v>
+      </c>
       <c r="H117" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I117" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G118" t="s">
+        <v>18</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>132</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G119" t="s">
+        <v>157</v>
+      </c>
       <c r="H119" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I119" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G120" t="s">
+        <v>18</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>132</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G121" t="s">
+        <v>157</v>
+      </c>
       <c r="H121" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I121" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>132</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G122" t="s">
+        <v>157</v>
+      </c>
       <c r="H122" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I122" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G123" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>132</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G124" t="s">
+        <v>157</v>
+      </c>
       <c r="H124" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I124" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>132</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G125" t="s">
+        <v>157</v>
+      </c>
       <c r="H125" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I125" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>147</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G126" t="s">
+        <v>174</v>
+      </c>
       <c r="H126" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I126" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>147</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G127" t="s">
+        <v>174</v>
+      </c>
       <c r="H127" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I127" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>147</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G128" t="s">
+        <v>174</v>
+      </c>
       <c r="H128" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I128" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>147</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G129" t="s">
+        <v>174</v>
+      </c>
       <c r="H129" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I129" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>147</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G130" t="s">
+        <v>174</v>
+      </c>
       <c r="H130" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I130" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>147</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G131" t="s">
+        <v>174</v>
+      </c>
       <c r="H131" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I131" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>147</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G133" t="s">
+        <v>174</v>
+      </c>
       <c r="H133" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I133" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>147</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G135" t="s">
+        <v>174</v>
+      </c>
       <c r="H135" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I135" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>158</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G136" t="s">
+        <v>187</v>
+      </c>
       <c r="H136" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I136" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G137" t="s">
+        <v>18</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>158</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G138" t="s">
+        <v>187</v>
+      </c>
       <c r="H138" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I138" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>158</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G139" t="s">
+        <v>187</v>
+      </c>
       <c r="H139" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I139" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G140" t="s">
+        <v>18</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>158</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G141" t="s">
+        <v>187</v>
+      </c>
       <c r="H141" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I141" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G142" t="s">
+        <v>18</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>158</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G143" t="s">
+        <v>187</v>
+      </c>
       <c r="H143" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I143" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>167</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G144" t="s">
+        <v>198</v>
+      </c>
       <c r="H144" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I144" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G145" t="s">
+        <v>18</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>167</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G146" t="s">
+        <v>198</v>
+      </c>
       <c r="H146" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I146" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G147" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>167</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G148" t="s">
+        <v>198</v>
+      </c>
       <c r="H148" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I148" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G149" t="s">
+        <v>205</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G150" t="s">
+        <v>18</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G151" t="s">
+        <v>205</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G152" t="s">
+        <v>205</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>177</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>210</v>
+      </c>
+      <c r="G153" t="s">
+        <v>211</v>
+      </c>
       <c r="H153" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>212</v>
+      </c>
+      <c r="I153" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>177</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>210</v>
+      </c>
+      <c r="G154" t="s">
+        <v>211</v>
+      </c>
       <c r="H154" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>212</v>
+      </c>
+      <c r="I154" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>177</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>210</v>
+      </c>
+      <c r="G155" t="s">
+        <v>211</v>
+      </c>
       <c r="H155" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>212</v>
+      </c>
+      <c r="I155" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>177</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>210</v>
+      </c>
+      <c r="G156" t="s">
+        <v>211</v>
+      </c>
       <c r="H156" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>212</v>
+      </c>
+      <c r="I156" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>177</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>210</v>
+      </c>
+      <c r="G157" t="s">
+        <v>211</v>
+      </c>
       <c r="H157" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>212</v>
+      </c>
+      <c r="I157" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G158" t="s">
+        <v>18</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G159" t="s">
+        <v>18</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G160" t="s">
+        <v>18</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>23</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G161" t="s">
+        <v>28</v>
+      </c>
       <c r="H161" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I161" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>187</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G162" t="s">
+        <v>223</v>
+      </c>
       <c r="H162" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I162" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>14</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G163" t="s">
+        <v>226</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G164" t="s">
+        <v>18</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>191</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="G165" t="s">
+        <v>230</v>
+      </c>
       <c r="H165" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I165" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>18</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>191</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="G167" t="s">
+        <v>230</v>
+      </c>
       <c r="H167" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I167" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>18</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>196</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>235</v>
+      </c>
+      <c r="G169" t="s">
+        <v>236</v>
+      </c>
       <c r="H169" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>237</v>
+      </c>
+      <c r="I169" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
+        <v>18</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>196</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>235</v>
+      </c>
+      <c r="G171" t="s">
+        <v>236</v>
+      </c>
       <c r="H171" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>237</v>
+      </c>
+      <c r="I171" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>196</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>235</v>
+      </c>
+      <c r="G172" t="s">
+        <v>236</v>
+      </c>
       <c r="H172" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>237</v>
+      </c>
+      <c r="I172" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G173" t="s">
+        <v>136</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G174" t="s">
+        <v>18</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G175" t="s">
+        <v>136</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G176" t="s">
+        <v>18</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G177" t="s">
+        <v>136</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G178" t="s">
+        <v>18</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G179" t="s">
+        <v>136</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G180" t="s">
+        <v>136</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>209</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>250</v>
+      </c>
+      <c r="G181" t="s">
+        <v>251</v>
+      </c>
       <c r="H181" t="s">
-        <v>210</v>
+        <v>252</v>
+      </c>
+      <c r="I181" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99625.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99625.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="256">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>400097</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Davis</t>
@@ -1124,7 +1130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1132,7 +1138,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1157,5065 +1163,5448 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>29</v>
       </c>
-      <c r="I12" t="s">
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
+      <c r="I14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
         <v>38</v>
       </c>
-      <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>36</v>
-      </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G46" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G48" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G50" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G52" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G59" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G61" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G62" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G63" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="I63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G65" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="I65" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G67" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="I67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G69" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G71" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G72" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I72" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G74" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s">
-        <v>18</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G76" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s">
-        <v>18</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G78" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G79" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G80" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s">
-        <v>18</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G82" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I82" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s">
-        <v>18</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G84" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I84" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" t="s">
-        <v>18</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G86" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I86" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" t="s">
-        <v>18</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G88" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I88" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
-      </c>
-      <c r="G89" t="s">
-        <v>18</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G90" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I90" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" t="s">
-        <v>18</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G92" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I92" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J92" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G93" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I93" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G94" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I94" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="J94" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G95" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I95" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s">
-        <v>136</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>138</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
-      </c>
-      <c r="G97" t="s">
-        <v>18</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s">
-        <v>136</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>138</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" t="s">
-        <v>18</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" t="s">
-        <v>136</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>138</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
-      </c>
-      <c r="G101" t="s">
-        <v>18</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" t="s">
-        <v>136</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>138</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G103" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I103" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J103" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
-      </c>
-      <c r="G104" t="s">
-        <v>18</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G105" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I105" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J105" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
-      </c>
-      <c r="G106" t="s">
-        <v>18</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G107" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I107" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J107" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
-      </c>
-      <c r="G108" t="s">
-        <v>18</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>20</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G109" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I109" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J109" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
-      </c>
-      <c r="G110" t="s">
-        <v>18</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>20</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G111" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I111" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J111" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G112" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I112" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" t="s">
-        <v>18</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>20</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G114" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I114" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J114" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G115" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I115" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J115" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
-      </c>
-      <c r="G116" t="s">
-        <v>18</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>20</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G117" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I117" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J117" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>17</v>
-      </c>
-      <c r="G118" t="s">
-        <v>18</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>20</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G119" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I119" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J119" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
-      </c>
-      <c r="G120" t="s">
-        <v>18</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>20</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G121" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I121" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J121" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G122" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I122" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J122" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
-      </c>
-      <c r="G123" t="s">
-        <v>18</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>20</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G124" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I124" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J124" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G125" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I125" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J125" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G126" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I126" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J126" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G127" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I127" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="J127" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G128" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I128" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J128" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G129" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I129" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J129" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G130" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I130" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J130" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G131" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I131" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J131" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" t="s">
-        <v>18</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>20</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G133" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I133" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J133" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
-      </c>
-      <c r="G134" t="s">
-        <v>18</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>20</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G135" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I135" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J135" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G136" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I136" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J136" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>17</v>
-      </c>
-      <c r="G137" t="s">
-        <v>18</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>20</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G138" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I138" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J138" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G139" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I139" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J139" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
-      </c>
-      <c r="G140" t="s">
-        <v>18</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>20</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G141" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I141" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J141" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>17</v>
-      </c>
-      <c r="G142" t="s">
-        <v>18</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>20</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G143" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I143" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J143" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G144" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I144" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="J144" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>17</v>
-      </c>
-      <c r="G145" t="s">
-        <v>18</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>20</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G146" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I146" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="J146" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>17</v>
-      </c>
-      <c r="G147" t="s">
-        <v>18</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>20</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G148" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I148" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="J148" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>17</v>
-      </c>
-      <c r="G149" t="s">
-        <v>205</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>207</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
-      </c>
-      <c r="G150" t="s">
-        <v>18</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>20</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
-      </c>
-      <c r="G151" t="s">
-        <v>205</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>207</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>17</v>
-      </c>
-      <c r="G152" t="s">
-        <v>205</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>207</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G153" t="s">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I153" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>214</v>
+      </c>
+      <c r="J153" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G154" t="s">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I154" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="J154" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G155" t="s">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I155" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>214</v>
+      </c>
+      <c r="J155" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G156" t="s">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I156" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>214</v>
+      </c>
+      <c r="J156" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G157" t="s">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I157" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>214</v>
+      </c>
+      <c r="J157" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>17</v>
-      </c>
-      <c r="G158" t="s">
-        <v>18</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>20</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>17</v>
-      </c>
-      <c r="G159" t="s">
-        <v>18</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>20</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>17</v>
-      </c>
-      <c r="G160" t="s">
-        <v>18</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>20</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G161" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I161" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J161" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G162" t="s">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I162" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>226</v>
+      </c>
+      <c r="J162" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>17</v>
-      </c>
-      <c r="G163" t="s">
-        <v>226</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>228</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>17</v>
-      </c>
-      <c r="G164" t="s">
-        <v>18</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>20</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G165" t="s">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="I165" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J165" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>17</v>
-      </c>
-      <c r="G166" t="s">
-        <v>18</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>20</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G167" t="s">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="I167" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J167" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>17</v>
-      </c>
-      <c r="G168" t="s">
-        <v>18</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>20</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G169" t="s">
-        <v>236</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I169" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>239</v>
+      </c>
+      <c r="J169" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>17</v>
-      </c>
-      <c r="G170" t="s">
-        <v>18</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>20</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G171" t="s">
-        <v>236</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I171" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>239</v>
+      </c>
+      <c r="J171" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G172" t="s">
-        <v>236</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I172" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>239</v>
+      </c>
+      <c r="J172" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>17</v>
-      </c>
-      <c r="G173" t="s">
-        <v>136</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>138</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>17</v>
-      </c>
-      <c r="G174" t="s">
-        <v>18</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>20</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>17</v>
-      </c>
-      <c r="G175" t="s">
-        <v>136</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>138</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>17</v>
-      </c>
-      <c r="G176" t="s">
-        <v>18</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>20</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>17</v>
-      </c>
-      <c r="G177" t="s">
-        <v>136</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>138</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>17</v>
-      </c>
-      <c r="G178" t="s">
-        <v>18</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>20</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>17</v>
-      </c>
-      <c r="G179" t="s">
-        <v>136</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>138</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>17</v>
-      </c>
-      <c r="G180" t="s">
-        <v>136</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>138</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G181" t="s">
-        <v>251</v>
+        <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I181" t="s">
-        <v>253</v>
+        <v>254</v>
+      </c>
+      <c r="J181" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
